--- a/data/turm/MEC-1A/MEC-1A_(1)bimestre.xlsx
+++ b/data/turm/MEC-1A/MEC-1A_(1)bimestre.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metalicos_(1)semestre</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metalicos_(1)semestre</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/turm/MEC-1A/MEC-1A_(1)bimestre.xlsx
+++ b/data/turm/MEC-1A/MEC-1A_(1)bimestre.xlsx
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Anderson J.-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Anderson J.-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1A/MEC-1A_(1)bimestre.xlsx
+++ b/data/turm/MEC-1A/MEC-1A_(1)bimestre.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>Aline S. M.-T. M. Metalicos_(1)semestre</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Anderson J.-Des. Tec. Mec.</t>
+          <t>Aline S. M.-T. M. Metalicos_(1)semestre</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
     </row>
